--- a/@Papers/SPE2022/Final/2_GOM_MODEL/BlindTest_SSOIL.xlsx
+++ b/@Papers/SPE2022/Final/2_GOM_MODEL/BlindTest_SSOIL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\@Papers\SPE2022\Final\2_GOM_MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC61B26-2A58-496C-A90C-7DBEE7FF0F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DCBC0D-9AFD-4300-981C-AF4D6350456B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="555" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,18 +152,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -193,15 +187,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,10 +650,10 @@
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>34500000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>5035.97</v>
       </c>
       <c r="D4" s="2">
